--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/39_Isparta_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/39_Isparta_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9114E64D-DC37-4805-BE06-2148373B8748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{758D5713-0065-42B2-B2E5-56201671AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="657" xr2:uid="{FDBADB19-13F4-46EE-869F-A6360033098E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{DEBD9F93-E92D-4130-9CE3-B30728D7DDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4B9FCDB4-0357-4E6D-AE8A-B2A6B18FE974}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C856818E-A911-45BC-8FDF-014A9D9AD607}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8347C022-DEA8-45CC-AE20-D112509DB59B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CDF33072-7EEE-46AC-B1EC-3140781E4EE0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4994A3EA-38DA-4E1F-A45F-2D31DD25A8D1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{ABE28E21-9677-4116-84F5-B136F5C5DD2C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E23DA0FC-CEFC-46F7-AAEE-CA85EA323FB7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{588DC7EB-B05B-46D2-A6E7-461BB4CEA61B}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CCAFC030-775C-4841-B928-C951E3C5083E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BB3E6AA1-7C17-4A4B-9E2C-BF555AA7F2A6}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1CFFCFD7-4F6E-4AD3-8940-709867FB612F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B8EAC791-A4E3-48F9-B157-496AFB5DF6E3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CBF447E0-93B1-45A9-A577-55C4B4E21F8E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{45AA107C-7C89-4017-ACDA-7A67C4744BC6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5DFBE2-759A-4CA4-B0D5-4D36E97FBF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B1B06F-3989-46F4-B7EE-5CCF37210B09}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2642,17 +2642,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{848040DC-F3DE-4298-AA8A-43A57670CC98}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8B34F96-0A5B-45E2-BCEB-06E5285203A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A81AEF3C-6D89-48B1-B9A5-906FB72EC447}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2ED56945-7D8D-4E40-A286-BB795C500609}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07E666DE-31E3-438A-B073-4DE504B58E41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81CDB8DF-1FC5-4B2E-A02B-E404C6A31DC1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2289BFC-A219-478C-8E93-3B65D81C4C43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94EAFC00-8184-4390-96E2-A0EE8C3F8933}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FACB39C9-9CCF-4A1C-B648-56C2219E069E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ADAA0917-7862-475B-8402-B14D35398AF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{071ECAF6-E920-4C66-90FC-DEE0BCCFC62E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA2AD7D9-D2F7-4124-8A51-8624BD9C54FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA9FEB92-58A3-41A6-BCF8-6CA9AECA82B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{756510D7-440E-4B65-BF59-C5CC89BF2629}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4E9F1A5-10F1-473F-8467-1929DB04F0A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFE5A7E1-AC32-472C-B884-82C6A27EB145}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36543070-8B9E-4BCE-9238-64B2DD226363}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0AB63B8-40B5-4CFA-8C96-CFBB51BB202B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBF36A98-F61C-412C-95A3-3AD93FDB1AE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7085B589-D41E-4863-80CE-0AC07A6CD6D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C55E6545-C1D6-4C54-B3FA-D8BAEADEAA63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01CF839B-9C87-443C-8390-B2859C207F84}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2665,7 +2665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1D6728-4543-4C30-AA68-3C21DEA27C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCB8F56-61AA-4A71-90FD-E33817A60470}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3955,17 +3955,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA8C30BC-E529-4F85-824A-81AFB31D4604}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECA74D75-13C4-487E-840B-21F791481DB2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2C91ACF-6D7A-490D-992A-B9078CB07EAA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70A08784-4F12-4D8D-B17A-1B3C8309B22E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B52C134B-AA4B-48BA-8E3C-4E6621652D7F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF9C71B6-6743-4AF3-8167-3AF17F95388F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B34DA91-13C3-471B-A18D-060BB251A0F1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C604C73A-4165-480E-933A-5024B0B3F8B6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EE2759A3-11AA-42F3-81A7-2A5204383DDC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8C72524F-CE5D-4466-9251-1B460605BC5F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B4BDA3A-B9B4-4B37-B7C2-C5CC0BB82C2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DCC54AA-1B9D-45F5-8B8B-066E0B4028B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DF1E9D2-87F8-4A9B-B4B3-3DD412C48D87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{020AB331-1B03-4E5D-8075-E97E70A0F36E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{664D639C-1737-4DA3-AC35-F65C414D1935}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A8A3DAB-8EC5-49CB-B8A4-56518E96126E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{796104F4-431C-424B-AEEA-64B68397E8F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AAC58F2-804D-4060-A828-7BF4F4BA5839}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A3EB7DA-D361-4C5D-87CB-729B8383D093}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A7A62A28-7640-4760-B7C5-8CCDB7E01A21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA96D728-D754-46C9-B953-C222451FC005}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35310293-A2D7-4741-942C-696AA21C8C92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3978,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A13EC-700B-4A7F-940B-41C856F73B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394B208D-1F97-471E-B9DD-558682CCC043}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5266,17 +5266,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{672D1EC3-A559-4AFF-9643-9FA5C6D3BBDA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F50C29C6-1924-4BB8-8097-009F2F2D0D51}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C9BF392-EE98-47C4-BA62-A1C05F4DB65B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F170B56B-7C91-4361-91AA-47256767C0D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B45C6A5-25FE-427C-8262-6972BAD51DC4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E6173F7-B26F-4946-A6BF-EE3891BC269B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96D0B746-F8CB-471B-8CE4-E8B6A80CB598}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{731115C3-F48F-45D4-8CFD-9E5B17C512BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C7933EE6-8A47-498B-A5C8-26B6B7C0DC4C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5D77EABA-B978-4157-B6CE-1B085FD0A089}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C037EDE9-5A7E-4E0F-8E3F-51FA8BC1EFCA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABDF4D85-81E7-4646-9B44-14FC8C9DB6E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3193D47-C2F8-485E-A92D-8A663F7C48DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{756EF73F-4E5B-4A94-B923-485D91EED0D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A5CFAB1-F9CA-4EE1-9BBC-62B64E0C64F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32B700FC-8EB0-4598-AF5F-8263A7A0145F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCCF2085-5E86-4B14-9C21-BEF82C82D204}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{225EBAE7-DF1F-4133-9067-17A5543C0036}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A834B87C-C629-445D-A43B-3BC56530C567}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B3E6992-014C-468C-AC5F-1C50D269717C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DD380C79-B45C-43A6-8005-A4B4F719C7CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E657E4A7-925E-4155-A9EC-CFBD134AA334}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5289,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E571F3-8EEC-457E-8977-F8FC3C0C571F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7F82A4-5617-42A0-9419-B0BC2E763048}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6571,17 +6571,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{714316BE-E14E-4CD0-8DD0-5C2D45DB031D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7070FC8-0DEB-4BCB-8854-5D3DB4E364CB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{840A8C10-48F0-4280-8D1B-2E1D22396521}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB2924A1-DFB7-4480-AE62-8F0F3451A5A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B843C1B3-8C63-4CB1-A2D4-22C6F826CA87}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{503C064C-E4BC-4035-96A4-F101D308A983}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{314E6FD9-27DB-4167-AE29-7EDD287E67C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8D75054-43B6-4E34-A961-D83635A9293A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{944D4BC5-3E1A-4DBF-A99C-4285E58D5DCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E09EC46-5AD2-4AF2-AFF5-218CD6BE42BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4F09D71-144E-4911-81B4-4EB498154993}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1B5F044-4619-48EC-8638-C02698441716}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C42BA72B-CED6-43A0-A9A4-193AF174431E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E2F4C8E-77B3-48C2-B336-BD342B114530}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8D608ABD-06D3-4DF5-8402-882E027F2B39}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A50E77B-DCFB-4ECE-8C9F-C2EB1129A1DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B43F8E1-4304-4D9A-832E-0F4F2D26138B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA9C0C83-3C1F-471D-B62C-02DFAA72A040}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9533EE1C-D7EE-46A6-9795-559D4E501302}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BEE4BDF7-AB17-40D0-AF7A-C702FD962EC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1B9A0463-7936-4E25-994F-1395EB07175B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6EE11343-33D8-483C-94CB-78B3DFD62611}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6594,7 +6594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41D77D0-CA79-438F-A709-F02B2E953029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8841F91D-4A2D-4D1B-80AC-44CD0D9FD32E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7883,17 +7883,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{325DABF9-46BF-4F49-8CD2-1225C48B15B2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DEAA08E-D006-4F36-A727-7B3A71943380}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80CF23A3-5D04-48A6-BB3C-A4EB9671AFFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C9CB339C-803B-4CA3-BF04-479DB8F6DC66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C494CC47-3570-4D09-9FBB-3ABF17A630D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11E5D44B-D30B-47F5-9654-6556CF94FA21}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7A8D01B-F6F3-45DD-9AB2-E14E3ACD4E35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9463A4D1-BA38-4A05-80CB-12EFE4BB9F04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{56C83076-9D3D-4092-B2F7-DC5A87FE76D8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E84A0713-C33D-413E-BA68-B47645E17501}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C1D6E76-18DD-4F12-BB61-FE1E5090335F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64385F1B-200D-452D-8C72-71AC9BD87FF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D99DC4DA-04A9-401B-AD14-05386D562C6E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0B00AF7E-35C9-4E25-9ED2-5547B6195A62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2E773C7-A05C-46D0-8572-1D169A09A376}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3FE9039F-235F-4413-A646-9488FFBA2C4E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B3FB488-6E10-4A81-8EF2-A0FF2C72FA76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06A62604-9C7D-40B3-9A81-3E4B878D1EC9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6146A53-DE3E-4786-9AD4-5A8C200F9970}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58BDD57B-7C46-4666-91F9-8C7F48D20034}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DA51E056-2500-494E-B1EC-C063DDB6366C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0992AF05-DCE0-437D-B485-E4D65D46FE3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7906,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBE865-54E8-4DFF-8E39-A5F43A07E64C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77734819-F41B-43FA-B7F3-02ACDE623896}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9195,17 +9195,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90694A36-86C7-4253-AFD8-3CBD79910849}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E749727-485F-4A25-BCFE-99757BF18E1E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B37ACE3-3142-49EA-BCED-FBF2C6A4A0C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83699EA1-8439-4077-9DFF-EAC4D2535E37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{470FB638-2104-4C8A-8CAA-3C7A0B93C07F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CBFE378-820A-4704-A136-CF62F24D7C47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98B149E8-E1BE-4376-A4DE-F17AD2352536}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7E4A1DB-ECF8-49E7-8E63-6E09FE5C2F7A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7215FD80-6B5F-445D-9F13-365B0ACD2F73}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CDE1E60D-E966-4C3E-B24A-03852F1E569C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E97EAE97-6DA4-45AA-81A1-5225124C07EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72AE3F92-53D6-40CD-B54F-03D7991EAF61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{671E1917-5AC9-4E43-A13E-35BD15E94624}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68747D76-0B5C-4FEB-8EBC-9EFA03439F92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0E1261F0-BBE9-4265-99BB-367846F3412A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F7D3987-99A3-42BE-AB32-6C0380095FE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1FC8362-0181-40EE-ADBC-D75F87677597}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56B68082-50D3-46A0-96B9-E5C462F5A060}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EA8204C-519F-43C0-BBE5-B96F8D3AE1FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9C5D2372-81E9-4DA4-86D2-39D7F24D75D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{27798E69-8939-464F-A320-62B700AAC58A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B65309D7-00A3-43B7-869A-645D0CA4B3AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9218,7 +9218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E5D3B-0145-4D4C-8225-267C90A7CB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABE63D-A8AB-4E2D-92DA-0247DD789248}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10507,17 +10507,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27FFBC24-9D92-4B36-97A0-63F88E16FCA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D64D60E3-D7CD-4ECF-AAB6-AB5513D5C037}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EFF830D-A8D7-405C-A37B-0A55DC44B4D6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{081DB956-B563-4C92-B781-A1478556C2C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF28904D-73CD-4AE7-B71B-715333CE52E9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E70BCBD9-91A0-48B3-B2FD-2DE546BB1E1B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07A8B454-405B-4850-BD10-4334D35345DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36299180-9FC7-4070-BE50-2B77D0A33560}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B010EB8-5A2B-4D53-8A48-227576B2DA09}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49FD800D-5A2B-4029-8D19-F9AAC4C950E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BDC6F8E-5F46-4450-8469-272E74576A18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A6E4BA6E-633C-4022-BC84-AFA7043BED03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2244F282-D8D3-447A-B79A-6DBFBC18E05A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{902F72F8-EB46-4317-BF6B-295707F1CF98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{785A6E51-C49B-43E4-912D-5DEC6D0D808F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64344F94-3E02-4E4C-8804-F4731DBC4F93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6836E9F-CAAA-48E5-A317-BC83406463AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0D73ECA-5956-4E02-BA7A-356EFD056830}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8835FC7-9F10-4EE3-BB8C-CB507BB4D115}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5A0943D1-34F4-44AC-834C-119377B2F329}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCB5CC13-F45B-4FC5-BF56-33C60F3FEF41}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F681F55F-7276-4D37-B8F6-8F77FE185BA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10530,7 +10530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA9DE88-D788-42B4-B245-900525C3CB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9928FC5B-6559-4992-AC76-AA2BE2D5D530}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11819,17 +11819,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4E5B870-AC05-43AD-86AD-87010ACA202B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30BEFF3B-2838-41B3-97CC-133C1FDDB73F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0BA369D-B132-4D17-A0B1-89FCE53DD031}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C687F49-B334-40C5-8618-A0AEEFEEA6E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF9C2D3A-E9E9-412F-955A-6215D463BC68}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DB1E293-857A-4687-AEB3-F8C008C49690}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27205009-F629-4549-BA95-DA032E9033CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05237DE5-D3F0-4D63-9EC2-1D34055F26F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B4BC45C-30AB-4ACC-AA06-9BCEC7C1F8B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9D22D9E5-B2A7-48DC-8CA3-5BA23B7410E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D30AE40-2FCC-4CD3-ACB5-E3EE314C43D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F65621F-8649-4CC1-B174-5C362371F41E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A09F943-787B-4010-A731-7CD4BF49F5CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9AA10525-652B-468D-BA4D-C2C92469A19D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FE4D081-2CED-4565-A5F9-5BA37994E343}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{557FD3C3-3170-4C63-B483-093694D3C409}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C549D235-5538-47A4-9A71-688B131963CE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3209F94A-7936-48B1-A6BB-84411B96E592}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FFFB512-FE6A-45F2-BE23-B4362CB8868F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{75251FEA-0E8F-4488-A47E-124463DDD7D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4EA6096D-222A-42E3-B34F-7FA6FCD10BF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BB5ECDF-8294-4E07-BB65-D943BBC8245C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11842,7 +11842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FCCA0A-3D8B-4803-AA31-E02053B9E609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC2483D-B2E1-4E02-A8C8-FC02E8C33505}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13131,17 +13131,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDC8DBE3-DA2E-4979-A4DA-1D8DB575E21C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9840E033-581C-4B7C-BBFA-C7A50BEC4BDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2B262AA8-2661-4FFB-AF45-6FDFEB15DEDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F242B7A-710B-4845-8023-29F8A99BCF3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A6F9507-4007-4BAB-8081-AF4022AB6358}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05DFB9FD-98D9-494C-A069-5141756C16ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CD464EA-4E12-4B67-8709-B6CAF93FBEF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A6F4925-3C3D-4D07-9DF4-7ED980370673}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F706F9F-74E1-47B1-8E53-2F31DF378B7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1919C7DB-0112-4924-A6A1-B41E7CF27A44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C322D223-599F-4FC0-9FA4-F1236D2F6F93}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2728D2B-0674-4657-A895-860E5F342C38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19EF53FF-6FE1-4007-BD33-CB9A11615EAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{408E91BB-FE8D-4FF6-BC68-51FC5D776D2D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6199372-16FC-42F9-80A9-99A2DCFB8759}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B79A9ACC-92D9-4CD1-A48D-DA4CADFA0F65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B51D9321-24BE-4545-9981-3ACD4BDD5C4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5ACEA4C8-0883-472D-8A08-4C6D040D79BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BB093B1-1033-4E1D-94A2-6B696E9ED05A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2135E7A5-7A99-443A-B0B0-2B3C773EAA94}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8FB537E2-D5CD-40F7-B014-877D6559B858}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA7854AA-4445-49BF-8FC4-CECADCCD4337}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13154,7 +13154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A958FD-2C65-4FD8-9614-403F67EAE0FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63490FD-171C-4B8D-9579-F536820C044D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14443,17 +14443,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C03E90B9-8E15-4C11-852B-5B05F0494C08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{966CFF78-673E-4149-9CFE-2AB45DCB90BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9327FDC8-28E2-406D-B15B-1AAB46C2EC0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{715497C1-3059-4995-B15E-EFC64E8BB6F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{157E78D2-FEFB-4759-8B59-584017A22BEE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C8B7C022-9D29-4B6E-91F0-9E987ABE8435}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23D6E738-5F6A-464F-972A-2CC139B3A652}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B13BB85-E285-47BD-B44A-9B170019FF43}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4E5D0F17-365D-4CBD-B84D-CCEB5FA83F8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B90BCD11-8D88-4C2F-A60E-30C82E0D1256}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B3FC77A-1D66-420B-9073-C9C20043F73A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FBA3B3F-BAEA-4643-A44E-44B540FE7FC5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDC57CFA-2EAD-4880-9A81-4501A75C41B4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D23F33A6-7900-4C0A-A9FC-A888C411F1A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{942DECFC-79B2-4170-B855-4847F320B2C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41CCF0C5-8C18-4543-9F86-CCC5F886B803}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B3066B4-0FAC-4C23-B6E0-517255C7342F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3193C0C0-3CF3-46A4-8FA6-6E4392C12714}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91940DF4-1BE3-418C-BBE8-8B3BA25AA048}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78BD28BF-42C7-4901-83F3-600D514CDB3A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EC89C71F-B10F-4887-BA9B-E76C2CDD737F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68181A5B-DCF4-4DC0-90A6-1754ED20501D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14466,7 +14466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A3AFB-AE18-49E2-BB93-BA649F973794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E72C3C-40FA-4D70-BBD1-622B68ECC065}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15755,17 +15755,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B24B717F-72CB-4894-A64E-A45C65F8E30E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAB377C6-BCB8-463E-AB12-85DE1ADBDC04}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BE2224B3-9080-4417-973D-32EDBF5CB569}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{74545F2D-212C-4AC6-91E3-C04F67B1D577}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{764D7B5D-323A-4486-8082-D25A8C38C416}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3B58A73F-CE68-49D1-B5A1-34E171A13C35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF423BFB-5102-4B3C-9182-C783CA298477}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF8AADAC-072F-4FCB-ACFF-150615F83F70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C422DCBF-CD79-44F5-B5B5-E01208A1F364}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9AD3DC6E-DC31-4421-8134-624F3FE00019}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DEB61A6F-2975-43EF-B9B9-3FEC14B271E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A5A0B24-5C9A-4DDD-9FDB-DA00F57662FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C258E83C-E23C-42C4-806C-808414D5FB5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DEA5A82-3C6E-4687-B733-3B2D186A6AB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58A2EC40-70AB-468B-BA8C-9D6BBE0E755E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED650DFE-FE0E-46AB-8C52-C1686E822E40}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6EFE33EE-A91E-45D8-95C7-2BB54EAD0580}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6F6B484-A566-4F6D-9ABF-25DBFB0D7414}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A0EBA92-1436-47B5-A0EC-F77470F111AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{667A1DF3-CD8B-4406-97A3-BE6BC3BCB93A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21A48062-8C2D-4CE3-9959-57412B2D534D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97FCA5CD-0E72-4097-AB16-3EF58C466CCD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15778,7 +15778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC68846D-D21E-48EB-B198-085CA1D227DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAA5C9F-9F72-4AC0-ADB3-E312F948B2EF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17067,17 +17067,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A429061A-6C30-4AD0-9231-0A1621634376}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8299FF70-4280-4F5F-A64F-3483167FB709}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{83C29A4C-857C-4D4E-B135-22462BF567FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2265CFE2-62B2-4148-A7FA-F8E00EA151C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{163C2005-2A4A-4DB9-BD78-20491F5AAA28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{47EE9A00-E4B4-4F2C-8325-3BDEAC2DF15B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72425E8F-4687-4FBD-830F-B36F624FE325}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2BCE9E22-E68A-4A76-972E-87ACFB177736}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ADAC6909-8268-4DF3-9B68-47ABC7CB74F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E2D8F076-80DA-4CC9-B442-9935A569B8F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A717A9D9-EF86-4BB4-A705-6C95E3DEC650}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ECA9EBE-3F4B-4745-87F9-DC37D7135753}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B8057753-974E-488B-B778-D462D07BD5BC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F750C6A-871F-4B94-915D-DE2CFAB876D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFF1A955-CA92-4539-B542-34AAB80A45DA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E9BD151-FCAE-4807-B586-7CA0EBCC9828}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35B847C7-F65B-45B4-9544-EA54A15C8A0F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73720B37-FB46-4BAB-BB03-720AC261F08C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92FC733E-9E80-44C4-9AC7-A4D157029290}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{20CDC708-2C66-459D-B801-F5C2E458B98C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA058E1C-B0F6-41CD-85CD-4C03229A0F9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F3ABA89-C868-42E3-A9B1-7ABDEC608189}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
